--- a/Testy/Test Cases.xlsx
+++ b/Testy/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laszy\Desktop\Semestr 9\Inżynieria oprogramowania\Ćwiczenia\investment_summarizer\investment_summarizer\Testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D03B2CC-A96E-4E7F-A54F-169FB55BEA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D80FE3-B825-4FE2-A44A-1B5CE1E78364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="114">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>3b. Jeśli output jest pusty pojawi się informacja, że nie ma danych do eksportu.</t>
-  </si>
-  <si>
-    <t>Python 3.13.1</t>
   </si>
   <si>
     <t>OpenAI API key</t>
@@ -369,6 +366,21 @@
   </si>
   <si>
     <t>Możliwość wybrania folderu do zapisania danych.</t>
+  </si>
+  <si>
+    <t>Python 3.7</t>
+  </si>
+  <si>
+    <t>library openai</t>
+  </si>
+  <si>
+    <t>library PyPDF2</t>
+  </si>
+  <si>
+    <t>library python-dotenv</t>
+  </si>
+  <si>
+    <t>library tkinter</t>
   </si>
 </sst>
 </file>
@@ -555,11 +567,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -567,8 +581,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -583,50 +627,45 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -636,33 +675,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -946,26 +958,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:H19"/>
+      <selection activeCell="A10" sqref="A10:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
         <v>28</v>
       </c>
@@ -976,29 +988,29 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1014,10 +1026,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1042,29 +1054,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22">
         <v>45666</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1083,265 +1095,388 @@
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>65</v>
+      <c r="G9" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9">
+        <v>6</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="9">
+        <v>7</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="18" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="18" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B22" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="37" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>2</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="43" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>3</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="14" t="s">
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>2</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="14" t="s">
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>4</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>4</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="53">
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1356,37 +1491,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1394,26 +1498,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C259F41-A1E4-4882-9EA4-8A3B8E54C345}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:H21"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
         <v>29</v>
       </c>
@@ -1424,29 +1528,29 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1462,10 +1566,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1490,29 +1594,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22">
         <v>45666</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1531,29 +1635,29 @@
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>62</v>
+      <c r="B9" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -1561,8 +1665,8 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>65</v>
+      <c r="G9" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1573,223 +1677,346 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9">
+        <v>6</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="9">
+        <v>7</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="18" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="18" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B22" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="45" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="14" t="s">
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="45" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>3</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="14" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="45" t="s">
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>4</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="41" t="s">
+      <c r="E25" s="43"/>
+      <c r="F25" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="14" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>4</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="53">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1804,37 +2031,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1842,26 +2038,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EDC1A7-BED3-4106-9141-213A1CB2DA46}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
         <v>30</v>
       </c>
@@ -1872,29 +2068,29 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1910,10 +2106,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1938,29 +2134,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22">
         <v>45666</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1979,29 +2175,29 @@
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>62</v>
+      <c r="B9" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -2009,8 +2205,8 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>65</v>
+      <c r="G9" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -2021,292 +2217,427 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9">
+        <v>6</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="9">
+        <v>7</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="18" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="18" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>1</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>2</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>4</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>5</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="14" t="s">
+      <c r="A23" s="9">
+        <v>2</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="43" t="s">
+      <c r="A24" s="9">
+        <v>3</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="14" t="s">
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="16"/>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>4</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>5</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="65">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2321,49 +2652,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2371,26 +2659,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8804EA-C1DC-4887-BE4D-4620B739960E}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:H25"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
         <v>31</v>
       </c>
@@ -2401,29 +2689,29 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2439,10 +2727,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2467,29 +2755,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22">
         <v>45666</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2508,29 +2796,29 @@
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>62</v>
+      <c r="B9" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -2538,8 +2826,8 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>65</v>
+      <c r="G9" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -2550,239 +2838,231 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9">
+        <v>6</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="9">
+        <v>7</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="18" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="18" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B22" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>2</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="14" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="15"/>
@@ -2790,45 +3070,45 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>4</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="14" t="s">
+      <c r="A24" s="9">
+        <v>3</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J24" s="15"/>
@@ -2836,29 +3116,176 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="14" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="16"/>
     </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>4</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="69">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2873,53 +3300,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2927,26 +3307,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87EF004-270C-4142-A839-A3C82E9E83CE}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
         <v>32</v>
       </c>
@@ -2957,29 +3337,29 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2995,10 +3375,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3023,29 +3403,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22">
         <v>45666</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3064,29 +3444,29 @@
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>62</v>
+      <c r="B9" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -3094,8 +3474,8 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>65</v>
+      <c r="G9" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -3106,246 +3486,373 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9">
+        <v>6</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="9">
+        <v>7</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="18" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="18" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>1</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>2</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>4</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>5</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>2</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>3</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>4</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>5</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="57">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3360,41 +3867,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3402,26 +3874,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196BE514-7A6E-407B-83F7-4265224B004D}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
         <v>33</v>
       </c>
@@ -3432,29 +3904,29 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -3470,10 +3942,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3498,29 +3970,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22">
         <v>45666</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3539,29 +4011,29 @@
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>62</v>
+      <c r="B9" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -3569,8 +4041,8 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>65</v>
+      <c r="G9" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -3581,288 +4053,419 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="G13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>69</v>
+      <c r="B14" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9">
-        <v>5</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>70</v>
+        <v>6</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="F15" s="9">
+        <v>7</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>9</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="9">
+        <v>9</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>10</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="9">
+        <v>10</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>1</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>2</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>3</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>4</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>5</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="16"/>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>2</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>3</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>4</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>5</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="61">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="I22:K23"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3877,45 +4480,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,10 +4487,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B958DF9-19B2-48B5-A48A-44CAC38F054A}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,17 +4500,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
         <v>34</v>
       </c>
@@ -3957,29 +4521,29 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -3995,10 +4559,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4023,29 +4587,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22">
         <v>45666</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4064,29 +4628,29 @@
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>62</v>
+      <c r="B9" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -4094,258 +4658,385 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>65</v>
+      <c r="G9" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9">
+        <v>6</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="9">
+        <v>7</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="18" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="18" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>2</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>3</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="14" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>2</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>3</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="57">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4360,41 +5051,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
